--- a/google.xlsx
+++ b/google.xlsx
@@ -15197,6 +15197,26 @@
         <v>1344.660034</v>
       </c>
     </row>
+    <row r="742">
+      <c r="A742" t="n">
+        <v>1350.839966</v>
+      </c>
+      <c r="B742" t="n">
+        <v>1351.199951</v>
+      </c>
+      <c r="C742" t="n">
+        <v>1342.670044</v>
+      </c>
+      <c r="D742" t="n">
+        <v>1345.02002</v>
+      </c>
+      <c r="E742" t="n">
+        <v>850400</v>
+      </c>
+      <c r="F742" t="n">
+        <v>1345.02002</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -15230,172 +15250,172 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1340.90723228777</v>
+        <v>1346.53862580289</v>
       </c>
       <c r="B2" t="n">
-        <v>1320.55855448322</v>
+        <v>1326.20291754637</v>
       </c>
       <c r="C2" t="n">
-        <v>1361.25591009231</v>
+        <v>1366.87433405941</v>
       </c>
       <c r="D2" t="n">
-        <v>1309.78661513729</v>
+        <v>1315.43784386443</v>
       </c>
       <c r="E2" t="n">
-        <v>1372.02784943825</v>
+        <v>1377.63940774135</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1342.3891906189</v>
+        <v>1347.27036484464</v>
       </c>
       <c r="B3" t="n">
-        <v>1313.4509757535</v>
+        <v>1318.35951789388</v>
       </c>
       <c r="C3" t="n">
-        <v>1371.3274054843</v>
+        <v>1376.18121179541</v>
       </c>
       <c r="D3" t="n">
-        <v>1298.13201015269</v>
+        <v>1303.05503999194</v>
       </c>
       <c r="E3" t="n">
-        <v>1386.64637108511</v>
+        <v>1391.48568969735</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1343.50763348047</v>
+        <v>1344.33536713393</v>
       </c>
       <c r="B4" t="n">
-        <v>1309.1704851082</v>
+        <v>1310.03050849494</v>
       </c>
       <c r="C4" t="n">
-        <v>1377.84478185274</v>
+        <v>1378.64022577293</v>
       </c>
       <c r="D4" t="n">
-        <v>1290.99349674899</v>
+        <v>1291.870613288</v>
       </c>
       <c r="E4" t="n">
-        <v>1396.02177021195</v>
+        <v>1396.80012097987</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1340.72012549065</v>
+        <v>1346.16442480857</v>
       </c>
       <c r="B5" t="n">
-        <v>1302.11443287439</v>
+        <v>1307.59593397168</v>
       </c>
       <c r="C5" t="n">
-        <v>1379.32581810692</v>
+        <v>1384.73291564546</v>
       </c>
       <c r="D5" t="n">
-        <v>1281.67781368641</v>
+        <v>1287.17900821611</v>
       </c>
       <c r="E5" t="n">
-        <v>1399.7624372949</v>
+        <v>1405.14984140103</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1342.44998410603</v>
+        <v>1347.13250973712</v>
       </c>
       <c r="B6" t="n">
-        <v>1299.79541010058</v>
+        <v>1304.52019673727</v>
       </c>
       <c r="C6" t="n">
-        <v>1385.10455811149</v>
+        <v>1389.74482273696</v>
       </c>
       <c r="D6" t="n">
-        <v>1277.21544257507</v>
+        <v>1281.96260083676</v>
       </c>
       <c r="E6" t="n">
-        <v>1407.684525637</v>
+        <v>1412.30241863747</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1343.70001227929</v>
+        <v>1344.95571161371</v>
       </c>
       <c r="B7" t="n">
-        <v>1297.93882801585</v>
+        <v>1299.23671515584</v>
       </c>
       <c r="C7" t="n">
-        <v>1389.46119654274</v>
+        <v>1390.67470807158</v>
       </c>
       <c r="D7" t="n">
-        <v>1273.71432035894</v>
+        <v>1275.03454037418</v>
       </c>
       <c r="E7" t="n">
-        <v>1413.68570419965</v>
+        <v>1414.87688285325</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1341.60105037544</v>
+        <v>1346.89161786958</v>
       </c>
       <c r="B8" t="n">
-        <v>1293.09140237647</v>
+        <v>1298.42321682006</v>
       </c>
       <c r="C8" t="n">
-        <v>1390.11069837441</v>
+        <v>1395.3600189191</v>
       </c>
       <c r="D8" t="n">
-        <v>1267.41194590481</v>
+        <v>1272.76559516449</v>
       </c>
       <c r="E8" t="n">
-        <v>1415.79015484607</v>
+        <v>1421.01764057467</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1343.41423703144</v>
+        <v>1347.94498651269</v>
       </c>
       <c r="B9" t="n">
-        <v>1292.11344780074</v>
+        <v>1296.68390883755</v>
       </c>
       <c r="C9" t="n">
-        <v>1394.71502626214</v>
+        <v>1399.20606418784</v>
       </c>
       <c r="D9" t="n">
-        <v>1264.95645041251</v>
+        <v>1269.54793347699</v>
       </c>
       <c r="E9" t="n">
-        <v>1421.87202365037</v>
+        <v>1426.3420395484</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1344.68353774126</v>
+        <v>1346.31786439683</v>
       </c>
       <c r="B10" t="n">
-        <v>1291.09956807964</v>
+        <v>1292.7691367138</v>
       </c>
       <c r="C10" t="n">
-        <v>1398.26750740288</v>
+        <v>1399.86659207986</v>
       </c>
       <c r="D10" t="n">
-        <v>1262.73392797989</v>
+        <v>1264.42215259058</v>
       </c>
       <c r="E10" t="n">
-        <v>1426.63314750263</v>
+        <v>1428.21357620308</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1343.09500460541</v>
+        <v>1348.25091483723</v>
       </c>
       <c r="B11" t="n">
-        <v>1287.39277877878</v>
+        <v>1292.57879244704</v>
       </c>
       <c r="C11" t="n">
-        <v>1398.79723043204</v>
+        <v>1403.92303722742</v>
       </c>
       <c r="D11" t="n">
-        <v>1257.90580160013</v>
+        <v>1263.10775106503</v>
       </c>
       <c r="E11" t="n">
-        <v>1428.28420761069</v>
+        <v>1433.39407860943</v>
       </c>
     </row>
   </sheetData>

--- a/google.xlsx
+++ b/google.xlsx
@@ -16671,7 +16671,7 @@
         <v>1110.709961</v>
       </c>
       <c r="E815" t="n">
-        <v>3207200</v>
+        <v>3208500</v>
       </c>
       <c r="F815" t="n">
         <v>1110.709961</v>
@@ -17111,7 +17111,7 @@
         <v>1341.47998</v>
       </c>
       <c r="E837" t="n">
-        <v>3793600</v>
+        <v>3791700</v>
       </c>
       <c r="F837" t="n">
         <v>1341.47998</v>
@@ -19195,6 +19195,466 @@
       </c>
       <c r="F941" t="n">
         <v>1444.959961</v>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" t="n">
+        <v>1474.209961</v>
+      </c>
+      <c r="B942" t="n">
+        <v>1476.800049</v>
+      </c>
+      <c r="C942" t="n">
+        <v>1449.301025</v>
+      </c>
+      <c r="D942" t="n">
+        <v>1464.52002</v>
+      </c>
+      <c r="E942" t="n">
+        <v>2007900</v>
+      </c>
+      <c r="F942" t="n">
+        <v>1464.52002</v>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" t="n">
+        <v>1470.390015</v>
+      </c>
+      <c r="B943" t="n">
+        <v>1476.662964</v>
+      </c>
+      <c r="C943" t="n">
+        <v>1458.805054</v>
+      </c>
+      <c r="D943" t="n">
+        <v>1469.329956</v>
+      </c>
+      <c r="E943" t="n">
+        <v>978200</v>
+      </c>
+      <c r="F943" t="n">
+        <v>1469.329956</v>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" t="n">
+        <v>1466.800049</v>
+      </c>
+      <c r="B944" t="n">
+        <v>1489.75</v>
+      </c>
+      <c r="C944" t="n">
+        <v>1459.880005</v>
+      </c>
+      <c r="D944" t="n">
+        <v>1469.599976</v>
+      </c>
+      <c r="E944" t="n">
+        <v>1700600</v>
+      </c>
+      <c r="F944" t="n">
+        <v>1469.599976</v>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" t="n">
+        <v>1484.27002</v>
+      </c>
+      <c r="B945" t="n">
+        <v>1499.040039</v>
+      </c>
+      <c r="C945" t="n">
+        <v>1479.209961</v>
+      </c>
+      <c r="D945" t="n">
+        <v>1490.089966</v>
+      </c>
+      <c r="E945" t="n">
+        <v>1779500</v>
+      </c>
+      <c r="F945" t="n">
+        <v>1490.089966</v>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" t="n">
+        <v>1462.030029</v>
+      </c>
+      <c r="B946" t="n">
+        <v>1483.199951</v>
+      </c>
+      <c r="C946" t="n">
+        <v>1450.920044</v>
+      </c>
+      <c r="D946" t="n">
+        <v>1458.420044</v>
+      </c>
+      <c r="E946" t="n">
+        <v>1284100</v>
+      </c>
+      <c r="F946" t="n">
+        <v>1458.420044</v>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" t="n">
+        <v>1466.209961</v>
+      </c>
+      <c r="B947" t="n">
+        <v>1488.209961</v>
+      </c>
+      <c r="C947" t="n">
+        <v>1464.27002</v>
+      </c>
+      <c r="D947" t="n">
+        <v>1486.02002</v>
+      </c>
+      <c r="E947" t="n">
+        <v>1113300</v>
+      </c>
+      <c r="F947" t="n">
+        <v>1486.02002</v>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" t="n">
+        <v>1475.579956</v>
+      </c>
+      <c r="B948" t="n">
+        <v>1486.76001</v>
+      </c>
+      <c r="C948" t="n">
+        <v>1448.589966</v>
+      </c>
+      <c r="D948" t="n">
+        <v>1453.439941</v>
+      </c>
+      <c r="E948" t="n">
+        <v>1245400</v>
+      </c>
+      <c r="F948" t="n">
+        <v>1453.439941</v>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" t="n">
+        <v>1464.290039</v>
+      </c>
+      <c r="B949" t="n">
+        <v>1468.959961</v>
+      </c>
+      <c r="C949" t="n">
+        <v>1436</v>
+      </c>
+      <c r="D949" t="n">
+        <v>1460.290039</v>
+      </c>
+      <c r="E949" t="n">
+        <v>1746200</v>
+      </c>
+      <c r="F949" t="n">
+        <v>1460.290039</v>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" t="n">
+        <v>1465.089966</v>
+      </c>
+      <c r="B950" t="n">
+        <v>1490</v>
+      </c>
+      <c r="C950" t="n">
+        <v>1465.089966</v>
+      </c>
+      <c r="D950" t="n">
+        <v>1485.930054</v>
+      </c>
+      <c r="E950" t="n">
+        <v>1187800</v>
+      </c>
+      <c r="F950" t="n">
+        <v>1485.930054</v>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" t="n">
+        <v>1494.699951</v>
+      </c>
+      <c r="B951" t="n">
+        <v>1516.52002</v>
+      </c>
+      <c r="C951" t="n">
+        <v>1489.449951</v>
+      </c>
+      <c r="D951" t="n">
+        <v>1515.219971</v>
+      </c>
+      <c r="E951" t="n">
+        <v>1435300</v>
+      </c>
+      <c r="F951" t="n">
+        <v>1515.219971</v>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" t="n">
+        <v>1543</v>
+      </c>
+      <c r="B952" t="n">
+        <v>1593.859985</v>
+      </c>
+      <c r="C952" t="n">
+        <v>1532.569946</v>
+      </c>
+      <c r="D952" t="n">
+        <v>1569.150024</v>
+      </c>
+      <c r="E952" t="n">
+        <v>2482600</v>
+      </c>
+      <c r="F952" t="n">
+        <v>1569.150024</v>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" t="n">
+        <v>1583.72998</v>
+      </c>
+      <c r="B953" t="n">
+        <v>1590</v>
+      </c>
+      <c r="C953" t="n">
+        <v>1563.199951</v>
+      </c>
+      <c r="D953" t="n">
+        <v>1571.680054</v>
+      </c>
+      <c r="E953" t="n">
+        <v>1601000</v>
+      </c>
+      <c r="F953" t="n">
+        <v>1571.680054</v>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" t="n">
+        <v>1578.589966</v>
+      </c>
+      <c r="B954" t="n">
+        <v>1587.68396</v>
+      </c>
+      <c r="C954" t="n">
+        <v>1550.530029</v>
+      </c>
+      <c r="D954" t="n">
+        <v>1568.079956</v>
+      </c>
+      <c r="E954" t="n">
+        <v>1931000</v>
+      </c>
+      <c r="F954" t="n">
+        <v>1568.079956</v>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" t="n">
+        <v>1547.150024</v>
+      </c>
+      <c r="B955" t="n">
+        <v>1575.10498</v>
+      </c>
+      <c r="C955" t="n">
+        <v>1545.030029</v>
+      </c>
+      <c r="D955" t="n">
+        <v>1559.130005</v>
+      </c>
+      <c r="E955" t="n">
+        <v>1540000</v>
+      </c>
+      <c r="F955" t="n">
+        <v>1559.130005</v>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" t="n">
+        <v>1565.849976</v>
+      </c>
+      <c r="B956" t="n">
+        <v>1581.130005</v>
+      </c>
+      <c r="C956" t="n">
+        <v>1563</v>
+      </c>
+      <c r="D956" t="n">
+        <v>1573.01001</v>
+      </c>
+      <c r="E956" t="n">
+        <v>1434700</v>
+      </c>
+      <c r="F956" t="n">
+        <v>1573.01001</v>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" t="n">
+        <v>1580.459961</v>
+      </c>
+      <c r="B957" t="n">
+        <v>1588.150024</v>
+      </c>
+      <c r="C957" t="n">
+        <v>1528</v>
+      </c>
+      <c r="D957" t="n">
+        <v>1534.609985</v>
+      </c>
+      <c r="E957" t="n">
+        <v>1607100</v>
+      </c>
+      <c r="F957" t="n">
+        <v>1534.609985</v>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" t="n">
+        <v>1527.050049</v>
+      </c>
+      <c r="B958" t="n">
+        <v>1577.5</v>
+      </c>
+      <c r="C958" t="n">
+        <v>1525.670044</v>
+      </c>
+      <c r="D958" t="n">
+        <v>1555.930054</v>
+      </c>
+      <c r="E958" t="n">
+        <v>2241700</v>
+      </c>
+      <c r="F958" t="n">
+        <v>1555.930054</v>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" t="n">
+        <v>1573.329956</v>
+      </c>
+      <c r="B959" t="n">
+        <v>1618.72998</v>
+      </c>
+      <c r="C959" t="n">
+        <v>1571.630005</v>
+      </c>
+      <c r="D959" t="n">
+        <v>1593.310059</v>
+      </c>
+      <c r="E959" t="n">
+        <v>2568300</v>
+      </c>
+      <c r="F959" t="n">
+        <v>1593.310059</v>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" t="n">
+        <v>1593.050049</v>
+      </c>
+      <c r="B960" t="n">
+        <v>1621.98999</v>
+      </c>
+      <c r="C960" t="n">
+        <v>1585</v>
+      </c>
+      <c r="D960" t="n">
+        <v>1615.329956</v>
+      </c>
+      <c r="E960" t="n">
+        <v>1433600</v>
+      </c>
+      <c r="F960" t="n">
+        <v>1615.329956</v>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" t="n">
+        <v>1626.069946</v>
+      </c>
+      <c r="B961" t="n">
+        <v>1642.359985</v>
+      </c>
+      <c r="C961" t="n">
+        <v>1620.51001</v>
+      </c>
+      <c r="D961" t="n">
+        <v>1641</v>
+      </c>
+      <c r="E961" t="n">
+        <v>1375800</v>
+      </c>
+      <c r="F961" t="n">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" t="n">
+        <v>1625.01001</v>
+      </c>
+      <c r="B962" t="n">
+        <v>1638.23999</v>
+      </c>
+      <c r="C962" t="n">
+        <v>1576.5</v>
+      </c>
+      <c r="D962" t="n">
+        <v>1590.449951</v>
+      </c>
+      <c r="E962" t="n">
+        <v>1853300</v>
+      </c>
+      <c r="F962" t="n">
+        <v>1590.449951</v>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" t="n">
+        <v>1595.670044</v>
+      </c>
+      <c r="B963" t="n">
+        <v>1606.844971</v>
+      </c>
+      <c r="C963" t="n">
+        <v>1582.780029</v>
+      </c>
+      <c r="D963" t="n">
+        <v>1604.26001</v>
+      </c>
+      <c r="E963" t="n">
+        <v>1229000</v>
+      </c>
+      <c r="F963" t="n">
+        <v>1604.26001</v>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" t="n">
+        <v>1559.73999</v>
+      </c>
+      <c r="B964" t="n">
+        <v>1561.349976</v>
+      </c>
+      <c r="C964" t="n">
+        <v>1514.619995</v>
+      </c>
+      <c r="D964" t="n">
+        <v>1516.619995</v>
+      </c>
+      <c r="E964" t="n">
+        <v>1832000</v>
+      </c>
+      <c r="F964" t="n">
+        <v>1516.619995</v>
       </c>
     </row>
   </sheetData>
@@ -19230,172 +19690,172 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1442.36405579322</v>
+        <v>1529.83337931538</v>
       </c>
       <c r="B2" t="n">
-        <v>1415.88136716796</v>
+        <v>1502.93397425899</v>
       </c>
       <c r="C2" t="n">
-        <v>1468.84674441849</v>
+        <v>1556.73278437176</v>
       </c>
       <c r="D2" t="n">
-        <v>1401.86227863902</v>
+        <v>1488.69428937664</v>
       </c>
       <c r="E2" t="n">
-        <v>1482.86583294742</v>
+        <v>1570.97246925411</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1442.36405579322</v>
+        <v>1527.84121255153</v>
       </c>
       <c r="B3" t="n">
-        <v>1407.56414787295</v>
+        <v>1492.55073550658</v>
       </c>
       <c r="C3" t="n">
-        <v>1477.16396371349</v>
+        <v>1563.13168959649</v>
       </c>
       <c r="D3" t="n">
-        <v>1389.14218940656</v>
+        <v>1473.86908543236</v>
       </c>
       <c r="E3" t="n">
-        <v>1495.58592217988</v>
+        <v>1581.81333967071</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1442.36405579322</v>
+        <v>1528.14156924443</v>
       </c>
       <c r="B4" t="n">
-        <v>1400.88232022568</v>
+        <v>1485.76743272496</v>
       </c>
       <c r="C4" t="n">
-        <v>1483.84579136076</v>
+        <v>1570.5157057639</v>
       </c>
       <c r="D4" t="n">
-        <v>1378.92321586569</v>
+        <v>1463.33591983706</v>
       </c>
       <c r="E4" t="n">
-        <v>1505.80489572076</v>
+        <v>1592.9472186518</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1442.36405579322</v>
+        <v>1528.09628481112</v>
       </c>
       <c r="B5" t="n">
-        <v>1395.13657247967</v>
+        <v>1479.70825943251</v>
       </c>
       <c r="C5" t="n">
-        <v>1489.59153910677</v>
+        <v>1576.48431018972</v>
       </c>
       <c r="D5" t="n">
-        <v>1370.13585299305</v>
+        <v>1454.09318608697</v>
       </c>
       <c r="E5" t="n">
-        <v>1514.59225859339</v>
+        <v>1602.09938353526</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1442.36405579322</v>
+        <v>1528.10311229307</v>
       </c>
       <c r="B6" t="n">
-        <v>1390.01774766583</v>
+        <v>1474.3640743149</v>
       </c>
       <c r="C6" t="n">
-        <v>1494.71036392062</v>
+        <v>1581.84215027124</v>
       </c>
       <c r="D6" t="n">
-        <v>1362.30728600594</v>
+        <v>1445.91634600693</v>
       </c>
       <c r="E6" t="n">
-        <v>1522.4208255805</v>
+        <v>1610.2898785792</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1442.36405579322</v>
+        <v>1528.10208292146</v>
       </c>
       <c r="B7" t="n">
-        <v>1385.35671618678</v>
+        <v>1469.49944275821</v>
       </c>
       <c r="C7" t="n">
-        <v>1499.37139539967</v>
+        <v>1586.70472308472</v>
       </c>
       <c r="D7" t="n">
-        <v>1355.17885350634</v>
+        <v>1438.47707897547</v>
       </c>
       <c r="E7" t="n">
-        <v>1529.5492580801</v>
+        <v>1617.72708686746</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1442.36405579322</v>
+        <v>1528.10223811864</v>
       </c>
       <c r="B8" t="n">
-        <v>1381.04898779651</v>
+        <v>1465.00969152338</v>
       </c>
       <c r="C8" t="n">
-        <v>1503.67912378993</v>
+        <v>1591.1947847139</v>
       </c>
       <c r="D8" t="n">
-        <v>1348.59075145326</v>
+        <v>1431.61051484796</v>
       </c>
       <c r="E8" t="n">
-        <v>1536.13736013319</v>
+        <v>1624.59396138931</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1442.36405579322</v>
+        <v>1528.10221471974</v>
       </c>
       <c r="B9" t="n">
-        <v>1377.02464687427</v>
+        <v>1460.81873078271</v>
       </c>
       <c r="C9" t="n">
-        <v>1507.70346471217</v>
+        <v>1595.38569865677</v>
       </c>
       <c r="D9" t="n">
-        <v>1342.43605313197</v>
+        <v>1425.20100589095</v>
       </c>
       <c r="E9" t="n">
-        <v>1542.29205845447</v>
+        <v>1631.00342354852</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1442.36405579322</v>
+        <v>1528.10221824756</v>
       </c>
       <c r="B10" t="n">
-        <v>1373.23418415792</v>
+        <v>1456.87395615106</v>
       </c>
       <c r="C10" t="n">
-        <v>1511.49392742853</v>
+        <v>1599.33048034406</v>
       </c>
       <c r="D10" t="n">
-        <v>1336.6390406601</v>
+        <v>1419.16799184272</v>
       </c>
       <c r="E10" t="n">
-        <v>1548.08907092634</v>
+        <v>1637.03644465241</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1442.36405579322</v>
+        <v>1528.10221771568</v>
       </c>
       <c r="B11" t="n">
-        <v>1369.64101991909</v>
+        <v>1453.13646966199</v>
       </c>
       <c r="C11" t="n">
-        <v>1515.08709166735</v>
+        <v>1603.06796576937</v>
       </c>
       <c r="D11" t="n">
-        <v>1331.14377017082</v>
+        <v>1413.45199980041</v>
       </c>
       <c r="E11" t="n">
-        <v>1553.58434141563</v>
+        <v>1642.75243563094</v>
       </c>
     </row>
   </sheetData>

--- a/google.xlsx
+++ b/google.xlsx
@@ -17111,7 +17111,7 @@
         <v>1341.47998</v>
       </c>
       <c r="E837" t="n">
-        <v>3791700</v>
+        <v>3793600</v>
       </c>
       <c r="F837" t="n">
         <v>1341.47998</v>
@@ -17131,7 +17131,7 @@
         <v>1348.660034</v>
       </c>
       <c r="E838" t="n">
-        <v>2665400</v>
+        <v>2668900</v>
       </c>
       <c r="F838" t="n">
         <v>1348.660034</v>
@@ -17311,7 +17311,7 @@
         <v>1349.329956</v>
       </c>
       <c r="E847" t="n">
-        <v>1812600</v>
+        <v>1810600</v>
       </c>
       <c r="F847" t="n">
         <v>1349.329956</v>
@@ -18051,7 +18051,7 @@
         <v>1485.180054</v>
       </c>
       <c r="E884" t="n">
-        <v>1458200</v>
+        <v>1457000</v>
       </c>
       <c r="F884" t="n">
         <v>1485.180054</v>
@@ -19651,10 +19651,950 @@
         <v>1516.619995</v>
       </c>
       <c r="E964" t="n">
-        <v>1832000</v>
+        <v>1834000</v>
       </c>
       <c r="F964" t="n">
         <v>1516.619995</v>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" t="n">
+        <v>1522.359985</v>
+      </c>
+      <c r="B965" t="n">
+        <v>1593.709961</v>
+      </c>
+      <c r="C965" t="n">
+        <v>1522.23999</v>
+      </c>
+      <c r="D965" t="n">
+        <v>1567.23999</v>
+      </c>
+      <c r="E965" t="n">
+        <v>2003100</v>
+      </c>
+      <c r="F965" t="n">
+        <v>1567.23999</v>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" t="n">
+        <v>1672.109985</v>
+      </c>
+      <c r="B966" t="n">
+        <v>1687</v>
+      </c>
+      <c r="C966" t="n">
+        <v>1604.459961</v>
+      </c>
+      <c r="D966" t="n">
+        <v>1621.01001</v>
+      </c>
+      <c r="E966" t="n">
+        <v>4329100</v>
+      </c>
+      <c r="F966" t="n">
+        <v>1621.01001</v>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" t="n">
+        <v>1628.160034</v>
+      </c>
+      <c r="B967" t="n">
+        <v>1660.77002</v>
+      </c>
+      <c r="C967" t="n">
+        <v>1616.030029</v>
+      </c>
+      <c r="D967" t="n">
+        <v>1626.030029</v>
+      </c>
+      <c r="E967" t="n">
+        <v>2535400</v>
+      </c>
+      <c r="F967" t="n">
+        <v>1626.030029</v>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" t="n">
+        <v>1631.780029</v>
+      </c>
+      <c r="B968" t="n">
+        <v>1661.699951</v>
+      </c>
+      <c r="C968" t="n">
+        <v>1616.619995</v>
+      </c>
+      <c r="D968" t="n">
+        <v>1650.209961</v>
+      </c>
+      <c r="E968" t="n">
+        <v>1661700</v>
+      </c>
+      <c r="F968" t="n">
+        <v>1650.209961</v>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" t="n">
+        <v>1710.280029</v>
+      </c>
+      <c r="B969" t="n">
+        <v>1771.36499</v>
+      </c>
+      <c r="C969" t="n">
+        <v>1706.030029</v>
+      </c>
+      <c r="D969" t="n">
+        <v>1749.130005</v>
+      </c>
+      <c r="E969" t="n">
+        <v>3570900</v>
+      </c>
+      <c r="F969" t="n">
+        <v>1749.130005</v>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" t="n">
+        <v>1781</v>
+      </c>
+      <c r="B970" t="n">
+        <v>1793.640015</v>
+      </c>
+      <c r="C970" t="n">
+        <v>1750.51001</v>
+      </c>
+      <c r="D970" t="n">
+        <v>1763.369995</v>
+      </c>
+      <c r="E970" t="n">
+        <v>2065800</v>
+      </c>
+      <c r="F970" t="n">
+        <v>1763.369995</v>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" t="n">
+        <v>1753.949951</v>
+      </c>
+      <c r="B971" t="n">
+        <v>1772.430054</v>
+      </c>
+      <c r="C971" t="n">
+        <v>1740.349976</v>
+      </c>
+      <c r="D971" t="n">
+        <v>1761.75</v>
+      </c>
+      <c r="E971" t="n">
+        <v>1660900</v>
+      </c>
+      <c r="F971" t="n">
+        <v>1761.75</v>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" t="n">
+        <v>1790.900024</v>
+      </c>
+      <c r="B972" t="n">
+        <v>1818.060059</v>
+      </c>
+      <c r="C972" t="n">
+        <v>1760.02002</v>
+      </c>
+      <c r="D972" t="n">
+        <v>1763</v>
+      </c>
+      <c r="E972" t="n">
+        <v>2268300</v>
+      </c>
+      <c r="F972" t="n">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" t="n">
+        <v>1731.089966</v>
+      </c>
+      <c r="B973" t="n">
+        <v>1763</v>
+      </c>
+      <c r="C973" t="n">
+        <v>1717.300049</v>
+      </c>
+      <c r="D973" t="n">
+        <v>1740.390015</v>
+      </c>
+      <c r="E973" t="n">
+        <v>2636100</v>
+      </c>
+      <c r="F973" t="n">
+        <v>1740.390015</v>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" t="n">
+        <v>1750</v>
+      </c>
+      <c r="B974" t="n">
+        <v>1764.219971</v>
+      </c>
+      <c r="C974" t="n">
+        <v>1747.36499</v>
+      </c>
+      <c r="D974" t="n">
+        <v>1752.709961</v>
+      </c>
+      <c r="E974" t="n">
+        <v>1264000</v>
+      </c>
+      <c r="F974" t="n">
+        <v>1752.709961</v>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" t="n">
+        <v>1747.630005</v>
+      </c>
+      <c r="B975" t="n">
+        <v>1768.27002</v>
+      </c>
+      <c r="C975" t="n">
+        <v>1745.599976</v>
+      </c>
+      <c r="D975" t="n">
+        <v>1749.839966</v>
+      </c>
+      <c r="E975" t="n">
+        <v>1247500</v>
+      </c>
+      <c r="F975" t="n">
+        <v>1749.839966</v>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976" t="n">
+        <v>1757.630005</v>
+      </c>
+      <c r="B976" t="n">
+        <v>1781.040039</v>
+      </c>
+      <c r="C976" t="n">
+        <v>1744.550049</v>
+      </c>
+      <c r="D976" t="n">
+        <v>1777.02002</v>
+      </c>
+      <c r="E976" t="n">
+        <v>1499900</v>
+      </c>
+      <c r="F976" t="n">
+        <v>1777.02002</v>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" t="n">
+        <v>1771.699951</v>
+      </c>
+      <c r="B977" t="n">
+        <v>1799.069946</v>
+      </c>
+      <c r="C977" t="n">
+        <v>1767.689941</v>
+      </c>
+      <c r="D977" t="n">
+        <v>1781.380005</v>
+      </c>
+      <c r="E977" t="n">
+        <v>1246800</v>
+      </c>
+      <c r="F977" t="n">
+        <v>1781.380005</v>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" t="n">
+        <v>1776.939941</v>
+      </c>
+      <c r="B978" t="n">
+        <v>1785</v>
+      </c>
+      <c r="C978" t="n">
+        <v>1767</v>
+      </c>
+      <c r="D978" t="n">
+        <v>1770.150024</v>
+      </c>
+      <c r="E978" t="n">
+        <v>1147100</v>
+      </c>
+      <c r="F978" t="n">
+        <v>1770.150024</v>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" t="n">
+        <v>1765.22998</v>
+      </c>
+      <c r="B979" t="n">
+        <v>1773.469971</v>
+      </c>
+      <c r="C979" t="n">
+        <v>1746.140015</v>
+      </c>
+      <c r="D979" t="n">
+        <v>1746.780029</v>
+      </c>
+      <c r="E979" t="n">
+        <v>1173500</v>
+      </c>
+      <c r="F979" t="n">
+        <v>1746.780029</v>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" t="n">
+        <v>1738.380005</v>
+      </c>
+      <c r="B980" t="n">
+        <v>1769.589966</v>
+      </c>
+      <c r="C980" t="n">
+        <v>1737.005005</v>
+      </c>
+      <c r="D980" t="n">
+        <v>1763.920044</v>
+      </c>
+      <c r="E980" t="n">
+        <v>1249900</v>
+      </c>
+      <c r="F980" t="n">
+        <v>1763.920044</v>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" t="n">
+        <v>1765.209961</v>
+      </c>
+      <c r="B981" t="n">
+        <v>1774</v>
+      </c>
+      <c r="C981" t="n">
+        <v>1741.859985</v>
+      </c>
+      <c r="D981" t="n">
+        <v>1742.189941</v>
+      </c>
+      <c r="E981" t="n">
+        <v>2313500</v>
+      </c>
+      <c r="F981" t="n">
+        <v>1742.189941</v>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" t="n">
+        <v>1749.599976</v>
+      </c>
+      <c r="B982" t="n">
+        <v>1753.900024</v>
+      </c>
+      <c r="C982" t="n">
+        <v>1717.719971</v>
+      </c>
+      <c r="D982" t="n">
+        <v>1734.859985</v>
+      </c>
+      <c r="E982" t="n">
+        <v>2161600</v>
+      </c>
+      <c r="F982" t="n">
+        <v>1734.859985</v>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" t="n">
+        <v>1730.5</v>
+      </c>
+      <c r="B983" t="n">
+        <v>1771.599976</v>
+      </c>
+      <c r="C983" t="n">
+        <v>1727.689941</v>
+      </c>
+      <c r="D983" t="n">
+        <v>1768.880005</v>
+      </c>
+      <c r="E983" t="n">
+        <v>1578000</v>
+      </c>
+      <c r="F983" t="n">
+        <v>1768.880005</v>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" t="n">
+        <v>1772.890015</v>
+      </c>
+      <c r="B984" t="n">
+        <v>1778.540039</v>
+      </c>
+      <c r="C984" t="n">
+        <v>1756.540039</v>
+      </c>
+      <c r="D984" t="n">
+        <v>1771.430054</v>
+      </c>
+      <c r="E984" t="n">
+        <v>1045800</v>
+      </c>
+      <c r="F984" t="n">
+        <v>1771.430054</v>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" t="n">
+        <v>1773.089966</v>
+      </c>
+      <c r="B985" t="n">
+        <v>1804</v>
+      </c>
+      <c r="C985" t="n">
+        <v>1772.439941</v>
+      </c>
+      <c r="D985" t="n">
+        <v>1793.189941</v>
+      </c>
+      <c r="E985" t="n">
+        <v>884900</v>
+      </c>
+      <c r="F985" t="n">
+        <v>1793.189941</v>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" t="n">
+        <v>1781.18396</v>
+      </c>
+      <c r="B986" t="n">
+        <v>1788.064941</v>
+      </c>
+      <c r="C986" t="n">
+        <v>1755</v>
+      </c>
+      <c r="D986" t="n">
+        <v>1760.73999</v>
+      </c>
+      <c r="E986" t="n">
+        <v>1823800</v>
+      </c>
+      <c r="F986" t="n">
+        <v>1760.73999</v>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" t="n">
+        <v>1774.369995</v>
+      </c>
+      <c r="B987" t="n">
+        <v>1824.829956</v>
+      </c>
+      <c r="C987" t="n">
+        <v>1769.369995</v>
+      </c>
+      <c r="D987" t="n">
+        <v>1798.099976</v>
+      </c>
+      <c r="E987" t="n">
+        <v>1739000</v>
+      </c>
+      <c r="F987" t="n">
+        <v>1798.099976</v>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" t="n">
+        <v>1798.099976</v>
+      </c>
+      <c r="B988" t="n">
+        <v>1835.650024</v>
+      </c>
+      <c r="C988" t="n">
+        <v>1789.473022</v>
+      </c>
+      <c r="D988" t="n">
+        <v>1827.949951</v>
+      </c>
+      <c r="E988" t="n">
+        <v>1222000</v>
+      </c>
+      <c r="F988" t="n">
+        <v>1827.949951</v>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" t="n">
+        <v>1824.01001</v>
+      </c>
+      <c r="B989" t="n">
+        <v>1847.199951</v>
+      </c>
+      <c r="C989" t="n">
+        <v>1822.650024</v>
+      </c>
+      <c r="D989" t="n">
+        <v>1826.77002</v>
+      </c>
+      <c r="E989" t="n">
+        <v>1227300</v>
+      </c>
+      <c r="F989" t="n">
+        <v>1826.77002</v>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" t="n">
+        <v>1824.52002</v>
+      </c>
+      <c r="B990" t="n">
+        <v>1833.160034</v>
+      </c>
+      <c r="C990" t="n">
+        <v>1816.98999</v>
+      </c>
+      <c r="D990" t="n">
+        <v>1827.98999</v>
+      </c>
+      <c r="E990" t="n">
+        <v>1378200</v>
+      </c>
+      <c r="F990" t="n">
+        <v>1827.98999</v>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" t="n">
+        <v>1819</v>
+      </c>
+      <c r="B991" t="n">
+        <v>1832.369995</v>
+      </c>
+      <c r="C991" t="n">
+        <v>1805.780029</v>
+      </c>
+      <c r="D991" t="n">
+        <v>1819.47998</v>
+      </c>
+      <c r="E991" t="n">
+        <v>1320900</v>
+      </c>
+      <c r="F991" t="n">
+        <v>1819.47998</v>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" t="n">
+        <v>1810.099976</v>
+      </c>
+      <c r="B992" t="n">
+        <v>1821.900024</v>
+      </c>
+      <c r="C992" t="n">
+        <v>1796.204956</v>
+      </c>
+      <c r="D992" t="n">
+        <v>1818.550049</v>
+      </c>
+      <c r="E992" t="n">
+        <v>1096300</v>
+      </c>
+      <c r="F992" t="n">
+        <v>1818.550049</v>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" t="n">
+        <v>1812.01001</v>
+      </c>
+      <c r="B993" t="n">
+        <v>1834.27002</v>
+      </c>
+      <c r="C993" t="n">
+        <v>1767.810059</v>
+      </c>
+      <c r="D993" t="n">
+        <v>1784.130005</v>
+      </c>
+      <c r="E993" t="n">
+        <v>1507600</v>
+      </c>
+      <c r="F993" t="n">
+        <v>1784.130005</v>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" t="n">
+        <v>1769.800049</v>
+      </c>
+      <c r="B994" t="n">
+        <v>1781.310059</v>
+      </c>
+      <c r="C994" t="n">
+        <v>1740.319946</v>
+      </c>
+      <c r="D994" t="n">
+        <v>1775.329956</v>
+      </c>
+      <c r="E994" t="n">
+        <v>1362800</v>
+      </c>
+      <c r="F994" t="n">
+        <v>1775.329956</v>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" t="n">
+        <v>1763.060059</v>
+      </c>
+      <c r="B995" t="n">
+        <v>1784.449951</v>
+      </c>
+      <c r="C995" t="n">
+        <v>1760</v>
+      </c>
+      <c r="D995" t="n">
+        <v>1781.77002</v>
+      </c>
+      <c r="E995" t="n">
+        <v>1220700</v>
+      </c>
+      <c r="F995" t="n">
+        <v>1781.77002</v>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" t="n">
+        <v>1775</v>
+      </c>
+      <c r="B996" t="n">
+        <v>1797.390015</v>
+      </c>
+      <c r="C996" t="n">
+        <v>1757.214966</v>
+      </c>
+      <c r="D996" t="n">
+        <v>1760.060059</v>
+      </c>
+      <c r="E996" t="n">
+        <v>1600200</v>
+      </c>
+      <c r="F996" t="n">
+        <v>1760.060059</v>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" t="n">
+        <v>1764.420044</v>
+      </c>
+      <c r="B997" t="n">
+        <v>1771.420044</v>
+      </c>
+      <c r="C997" t="n">
+        <v>1749.949951</v>
+      </c>
+      <c r="D997" t="n">
+        <v>1767.77002</v>
+      </c>
+      <c r="E997" t="n">
+        <v>1482300</v>
+      </c>
+      <c r="F997" t="n">
+        <v>1767.77002</v>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" t="n">
+        <v>1772.880005</v>
+      </c>
+      <c r="B998" t="n">
+        <v>1773</v>
+      </c>
+      <c r="C998" t="n">
+        <v>1756.079956</v>
+      </c>
+      <c r="D998" t="n">
+        <v>1763</v>
+      </c>
+      <c r="E998" t="n">
+        <v>1513500</v>
+      </c>
+      <c r="F998" t="n">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" t="n">
+        <v>1768.51001</v>
+      </c>
+      <c r="B999" t="n">
+        <v>1771.784058</v>
+      </c>
+      <c r="C999" t="n">
+        <v>1738.660034</v>
+      </c>
+      <c r="D999" t="n">
+        <v>1747.900024</v>
+      </c>
+      <c r="E999" t="n">
+        <v>1624700</v>
+      </c>
+      <c r="F999" t="n">
+        <v>1747.900024</v>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" t="n">
+        <v>1754.180054</v>
+      </c>
+      <c r="B1000" t="n">
+        <v>1755.109985</v>
+      </c>
+      <c r="C1000" t="n">
+        <v>1720.219971</v>
+      </c>
+      <c r="D1000" t="n">
+        <v>1731.01001</v>
+      </c>
+      <c r="E1000" t="n">
+        <v>4016400</v>
+      </c>
+      <c r="F1000" t="n">
+        <v>1731.01001</v>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001" t="n">
+        <v>1713.51001</v>
+      </c>
+      <c r="B1001" t="n">
+        <v>1740.849976</v>
+      </c>
+      <c r="C1001" t="n">
+        <v>1699</v>
+      </c>
+      <c r="D1001" t="n">
+        <v>1739.369995</v>
+      </c>
+      <c r="E1001" t="n">
+        <v>1828400</v>
+      </c>
+      <c r="F1001" t="n">
+        <v>1739.369995</v>
+      </c>
+    </row>
+    <row r="1002">
+      <c r="A1002" t="n">
+        <v>1734.430054</v>
+      </c>
+      <c r="B1002" t="n">
+        <v>1737.405029</v>
+      </c>
+      <c r="C1002" t="n">
+        <v>1712.574951</v>
+      </c>
+      <c r="D1002" t="n">
+        <v>1723.5</v>
+      </c>
+      <c r="E1002" t="n">
+        <v>936700</v>
+      </c>
+      <c r="F1002" t="n">
+        <v>1723.5</v>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="A1003" t="n">
+        <v>1728.109985</v>
+      </c>
+      <c r="B1003" t="n">
+        <v>1747.98999</v>
+      </c>
+      <c r="C1003" t="n">
+        <v>1725.040039</v>
+      </c>
+      <c r="D1003" t="n">
+        <v>1732.380005</v>
+      </c>
+      <c r="E1003" t="n">
+        <v>1033800</v>
+      </c>
+      <c r="F1003" t="n">
+        <v>1732.380005</v>
+      </c>
+    </row>
+    <row r="1004">
+      <c r="A1004" t="n">
+        <v>1735</v>
+      </c>
+      <c r="B1004" t="n">
+        <v>1746</v>
+      </c>
+      <c r="C1004" t="n">
+        <v>1729.109985</v>
+      </c>
+      <c r="D1004" t="n">
+        <v>1738.849976</v>
+      </c>
+      <c r="E1004" t="n">
+        <v>346800</v>
+      </c>
+      <c r="F1004" t="n">
+        <v>1738.849976</v>
+      </c>
+    </row>
+    <row r="1005">
+      <c r="A1005" t="n">
+        <v>1751.63501</v>
+      </c>
+      <c r="B1005" t="n">
+        <v>1790.728027</v>
+      </c>
+      <c r="C1005" t="n">
+        <v>1746.334961</v>
+      </c>
+      <c r="D1005" t="n">
+        <v>1776.089966</v>
+      </c>
+      <c r="E1005" t="n">
+        <v>1393000</v>
+      </c>
+      <c r="F1005" t="n">
+        <v>1776.089966</v>
+      </c>
+    </row>
+    <row r="1006">
+      <c r="A1006" t="n">
+        <v>1787.790039</v>
+      </c>
+      <c r="B1006" t="n">
+        <v>1792.439941</v>
+      </c>
+      <c r="C1006" t="n">
+        <v>1756.089966</v>
+      </c>
+      <c r="D1006" t="n">
+        <v>1758.719971</v>
+      </c>
+      <c r="E1006" t="n">
+        <v>1299400</v>
+      </c>
+      <c r="F1006" t="n">
+        <v>1758.719971</v>
+      </c>
+    </row>
+    <row r="1007">
+      <c r="A1007" t="n">
+        <v>1762.01001</v>
+      </c>
+      <c r="B1007" t="n">
+        <v>1765.094971</v>
+      </c>
+      <c r="C1007" t="n">
+        <v>1725.599976</v>
+      </c>
+      <c r="D1007" t="n">
+        <v>1739.52002</v>
+      </c>
+      <c r="E1007" t="n">
+        <v>1306100</v>
+      </c>
+      <c r="F1007" t="n">
+        <v>1739.52002</v>
+      </c>
+    </row>
+    <row r="1008">
+      <c r="A1008" t="n">
+        <v>1735.420044</v>
+      </c>
+      <c r="B1008" t="n">
+        <v>1758.930054</v>
+      </c>
+      <c r="C1008" t="n">
+        <v>1735.420044</v>
+      </c>
+      <c r="D1008" t="n">
+        <v>1751.880005</v>
+      </c>
+      <c r="E1008" t="n">
+        <v>1011900</v>
+      </c>
+      <c r="F1008" t="n">
+        <v>1751.880005</v>
+      </c>
+    </row>
+    <row r="1009">
+      <c r="A1009" t="n">
+        <v>1757.540039</v>
+      </c>
+      <c r="B1009" t="n">
+        <v>1760.650024</v>
+      </c>
+      <c r="C1009" t="n">
+        <v>1707.849976</v>
+      </c>
+      <c r="D1009" t="n">
+        <v>1728.23999</v>
+      </c>
+      <c r="E1009" t="n">
+        <v>1901900</v>
+      </c>
+      <c r="F1009" t="n">
+        <v>1728.23999</v>
+      </c>
+    </row>
+    <row r="1010">
+      <c r="A1010" t="n">
+        <v>1725</v>
+      </c>
+      <c r="B1010" t="n">
+        <v>1747.670044</v>
+      </c>
+      <c r="C1010" t="n">
+        <v>1718.015015</v>
+      </c>
+      <c r="D1010" t="n">
+        <v>1740.920044</v>
+      </c>
+      <c r="E1010" t="n">
+        <v>1145300</v>
+      </c>
+      <c r="F1010" t="n">
+        <v>1740.920044</v>
+      </c>
+    </row>
+    <row r="1011">
+      <c r="A1011" t="n">
+        <v>1702.630005</v>
+      </c>
+      <c r="B1011" t="n">
+        <v>1748</v>
+      </c>
+      <c r="C1011" t="n">
+        <v>1699</v>
+      </c>
+      <c r="D1011" t="n">
+        <v>1735.290039</v>
+      </c>
+      <c r="E1011" t="n">
+        <v>2601300</v>
+      </c>
+      <c r="F1011" t="n">
+        <v>1735.290039</v>
       </c>
     </row>
   </sheetData>
@@ -19690,172 +20630,172 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1529.83337931538</v>
+        <v>1736.96442897849</v>
       </c>
       <c r="B2" t="n">
-        <v>1502.93397425899</v>
+        <v>1709.78021488091</v>
       </c>
       <c r="C2" t="n">
-        <v>1556.73278437176</v>
+        <v>1764.14864307607</v>
       </c>
       <c r="D2" t="n">
-        <v>1488.69428937664</v>
+        <v>1695.3897611994</v>
       </c>
       <c r="E2" t="n">
-        <v>1570.97246925411</v>
+        <v>1778.53909675758</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1527.84121255153</v>
+        <v>1737.90532973954</v>
       </c>
       <c r="B3" t="n">
-        <v>1492.55073550658</v>
+        <v>1701.9724978446</v>
       </c>
       <c r="C3" t="n">
-        <v>1563.13168959649</v>
+        <v>1773.83816163447</v>
       </c>
       <c r="D3" t="n">
-        <v>1473.86908543236</v>
+        <v>1682.9508056532</v>
       </c>
       <c r="E3" t="n">
-        <v>1581.81333967071</v>
+        <v>1792.85985382588</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1528.14156924443</v>
+        <v>1738.84623050059</v>
       </c>
       <c r="B4" t="n">
-        <v>1485.76743272496</v>
+        <v>1695.91191648631</v>
       </c>
       <c r="C4" t="n">
-        <v>1570.5157057639</v>
+        <v>1781.78054451486</v>
       </c>
       <c r="D4" t="n">
-        <v>1463.33591983706</v>
+        <v>1673.1838635453</v>
       </c>
       <c r="E4" t="n">
-        <v>1592.9472186518</v>
+        <v>1804.50859745587</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1528.09628481112</v>
+        <v>1739.78713126163</v>
       </c>
       <c r="B5" t="n">
-        <v>1479.70825943251</v>
+        <v>1690.8428544587</v>
       </c>
       <c r="C5" t="n">
-        <v>1576.48431018972</v>
+        <v>1788.73140806457</v>
       </c>
       <c r="D5" t="n">
-        <v>1454.09318608697</v>
+        <v>1664.93331939621</v>
       </c>
       <c r="E5" t="n">
-        <v>1602.09938353526</v>
+        <v>1814.64094312706</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1528.10311229307</v>
+        <v>1740.72803202268</v>
       </c>
       <c r="B6" t="n">
-        <v>1474.3640743149</v>
+        <v>1686.43503851846</v>
       </c>
       <c r="C6" t="n">
-        <v>1581.84215027124</v>
+        <v>1795.0210255269</v>
       </c>
       <c r="D6" t="n">
-        <v>1445.91634600693</v>
+        <v>1657.69406386869</v>
       </c>
       <c r="E6" t="n">
-        <v>1610.2898785792</v>
+        <v>1823.76200017668</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1528.10208292146</v>
+        <v>1741.66893278373</v>
       </c>
       <c r="B7" t="n">
-        <v>1469.49944275821</v>
+        <v>1682.5088444172</v>
       </c>
       <c r="C7" t="n">
-        <v>1586.70472308472</v>
+        <v>1800.82902115026</v>
       </c>
       <c r="D7" t="n">
-        <v>1438.47707897547</v>
+        <v>1651.191385381</v>
       </c>
       <c r="E7" t="n">
-        <v>1617.72708686746</v>
+        <v>1832.14648018646</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1528.10223811864</v>
+        <v>1742.60983354478</v>
       </c>
       <c r="B8" t="n">
-        <v>1465.00969152338</v>
+        <v>1678.95370290977</v>
       </c>
       <c r="C8" t="n">
-        <v>1591.1947847139</v>
+        <v>1806.26596417979</v>
       </c>
       <c r="D8" t="n">
-        <v>1431.61051484796</v>
+        <v>1645.25618286527</v>
       </c>
       <c r="E8" t="n">
-        <v>1624.59396138931</v>
+        <v>1839.96348422429</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1528.10221471974</v>
+        <v>1743.55073430583</v>
       </c>
       <c r="B9" t="n">
-        <v>1460.81873078271</v>
+        <v>1675.69581643462</v>
       </c>
       <c r="C9" t="n">
-        <v>1595.38569865677</v>
+        <v>1811.40565217704</v>
       </c>
       <c r="D9" t="n">
-        <v>1425.20100589095</v>
+        <v>1639.77559269069</v>
       </c>
       <c r="E9" t="n">
-        <v>1631.00342354852</v>
+        <v>1847.32587592096</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1528.10221824756</v>
+        <v>1744.49163506688</v>
       </c>
       <c r="B10" t="n">
-        <v>1456.87395615106</v>
+        <v>1672.68302283133</v>
       </c>
       <c r="C10" t="n">
-        <v>1599.33048034406</v>
+        <v>1816.30024730242</v>
       </c>
       <c r="D10" t="n">
-        <v>1419.16799184272</v>
+        <v>1634.66983971706</v>
       </c>
       <c r="E10" t="n">
-        <v>1637.03644465241</v>
+        <v>1854.31343041669</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1528.10221771568</v>
+        <v>1745.43253582792</v>
       </c>
       <c r="B11" t="n">
-        <v>1453.13646966199</v>
+        <v>1669.87683648577</v>
       </c>
       <c r="C11" t="n">
-        <v>1603.06796576937</v>
+        <v>1820.98823517007</v>
       </c>
       <c r="D11" t="n">
-        <v>1413.45199980041</v>
+        <v>1629.88006527679</v>
       </c>
       <c r="E11" t="n">
-        <v>1642.75243563094</v>
+        <v>1860.98500637906</v>
       </c>
     </row>
   </sheetData>

--- a/google.xlsx
+++ b/google.xlsx
@@ -18051,7 +18051,7 @@
         <v>1485.180054</v>
       </c>
       <c r="E884" t="n">
-        <v>1457000</v>
+        <v>1458200</v>
       </c>
       <c r="F884" t="n">
         <v>1485.180054</v>
@@ -18331,7 +18331,7 @@
         <v>1530.199951</v>
       </c>
       <c r="E898" t="n">
-        <v>1246000</v>
+        <v>1245100</v>
       </c>
       <c r="F898" t="n">
         <v>1530.199951</v>
@@ -20591,10 +20591,270 @@
         <v>1735.290039</v>
       </c>
       <c r="E1011" t="n">
-        <v>2601300</v>
+        <v>2602100</v>
       </c>
       <c r="F1011" t="n">
         <v>1735.290039</v>
+      </c>
+    </row>
+    <row r="1012">
+      <c r="A1012" t="n">
+        <v>1740.060059</v>
+      </c>
+      <c r="B1012" t="n">
+        <v>1788.400024</v>
+      </c>
+      <c r="C1012" t="n">
+        <v>1737.050049</v>
+      </c>
+      <c r="D1012" t="n">
+        <v>1787.25</v>
+      </c>
+      <c r="E1012" t="n">
+        <v>2265000</v>
+      </c>
+      <c r="F1012" t="n">
+        <v>1787.25</v>
+      </c>
+    </row>
+    <row r="1013">
+      <c r="A1013" t="n">
+        <v>1787.97998</v>
+      </c>
+      <c r="B1013" t="n">
+        <v>1809.839966</v>
+      </c>
+      <c r="C1013" t="n">
+        <v>1773.535034</v>
+      </c>
+      <c r="D1013" t="n">
+        <v>1807.209961</v>
+      </c>
+      <c r="E1013" t="n">
+        <v>2050600</v>
+      </c>
+      <c r="F1013" t="n">
+        <v>1807.209961</v>
+      </c>
+    </row>
+    <row r="1014">
+      <c r="A1014" t="n">
+        <v>1786.069946</v>
+      </c>
+      <c r="B1014" t="n">
+        <v>1794.314941</v>
+      </c>
+      <c r="C1014" t="n">
+        <v>1760.52002</v>
+      </c>
+      <c r="D1014" t="n">
+        <v>1766.719971</v>
+      </c>
+      <c r="E1014" t="n">
+        <v>1209700</v>
+      </c>
+      <c r="F1014" t="n">
+        <v>1766.719971</v>
+      </c>
+    </row>
+    <row r="1015">
+      <c r="A1015" t="n">
+        <v>1753.920044</v>
+      </c>
+      <c r="B1015" t="n">
+        <v>1778.040039</v>
+      </c>
+      <c r="C1015" t="n">
+        <v>1725.310059</v>
+      </c>
+      <c r="D1015" t="n">
+        <v>1746.550049</v>
+      </c>
+      <c r="E1015" t="n">
+        <v>1357700</v>
+      </c>
+      <c r="F1015" t="n">
+        <v>1746.550049</v>
+      </c>
+    </row>
+    <row r="1016">
+      <c r="A1016" t="n">
+        <v>1738.579956</v>
+      </c>
+      <c r="B1016" t="n">
+        <v>1765.035034</v>
+      </c>
+      <c r="C1016" t="n">
+        <v>1738.01001</v>
+      </c>
+      <c r="D1016" t="n">
+        <v>1754.400024</v>
+      </c>
+      <c r="E1016" t="n">
+        <v>1094100</v>
+      </c>
+      <c r="F1016" t="n">
+        <v>1754.400024</v>
+      </c>
+    </row>
+    <row r="1017">
+      <c r="A1017" t="n">
+        <v>1753.619995</v>
+      </c>
+      <c r="B1017" t="n">
+        <v>1775.01001</v>
+      </c>
+      <c r="C1017" t="n">
+        <v>1733.400024</v>
+      </c>
+      <c r="D1017" t="n">
+        <v>1740.180054</v>
+      </c>
+      <c r="E1017" t="n">
+        <v>1179500</v>
+      </c>
+      <c r="F1017" t="n">
+        <v>1740.180054</v>
+      </c>
+    </row>
+    <row r="1018">
+      <c r="A1018" t="n">
+        <v>1738.189941</v>
+      </c>
+      <c r="B1018" t="n">
+        <v>1756</v>
+      </c>
+      <c r="C1018" t="n">
+        <v>1721.550049</v>
+      </c>
+      <c r="D1018" t="n">
+        <v>1736.189941</v>
+      </c>
+      <c r="E1018" t="n">
+        <v>1342200</v>
+      </c>
+      <c r="F1018" t="n">
+        <v>1736.189941</v>
+      </c>
+    </row>
+    <row r="1019">
+      <c r="A1019" t="n">
+        <v>1752.25</v>
+      </c>
+      <c r="B1019" t="n">
+        <v>1809.275024</v>
+      </c>
+      <c r="C1019" t="n">
+        <v>1741.459961</v>
+      </c>
+      <c r="D1019" t="n">
+        <v>1790.859985</v>
+      </c>
+      <c r="E1019" t="n">
+        <v>1734600</v>
+      </c>
+      <c r="F1019" t="n">
+        <v>1790.859985</v>
+      </c>
+    </row>
+    <row r="1020">
+      <c r="A1020" t="n">
+        <v>1831.459961</v>
+      </c>
+      <c r="B1020" t="n">
+        <v>1903.709961</v>
+      </c>
+      <c r="C1020" t="n">
+        <v>1825.530029</v>
+      </c>
+      <c r="D1020" t="n">
+        <v>1886.900024</v>
+      </c>
+      <c r="E1020" t="n">
+        <v>2490300</v>
+      </c>
+      <c r="F1020" t="n">
+        <v>1886.900024</v>
+      </c>
+    </row>
+    <row r="1021">
+      <c r="A1021" t="n">
+        <v>1898</v>
+      </c>
+      <c r="B1021" t="n">
+        <v>1934.859985</v>
+      </c>
+      <c r="C1021" t="n">
+        <v>1887.109985</v>
+      </c>
+      <c r="D1021" t="n">
+        <v>1891.25</v>
+      </c>
+      <c r="E1021" t="n">
+        <v>2063900</v>
+      </c>
+      <c r="F1021" t="n">
+        <v>1891.25</v>
+      </c>
+    </row>
+    <row r="1022">
+      <c r="A1022" t="n">
+        <v>1895.680054</v>
+      </c>
+      <c r="B1022" t="n">
+        <v>1910.949951</v>
+      </c>
+      <c r="C1022" t="n">
+        <v>1881.76001</v>
+      </c>
+      <c r="D1022" t="n">
+        <v>1901.050049</v>
+      </c>
+      <c r="E1022" t="n">
+        <v>1272100</v>
+      </c>
+      <c r="F1022" t="n">
+        <v>1901.050049</v>
+      </c>
+    </row>
+    <row r="1023">
+      <c r="A1023" t="n">
+        <v>1920.670044</v>
+      </c>
+      <c r="B1023" t="n">
+        <v>1929.579956</v>
+      </c>
+      <c r="C1023" t="n">
+        <v>1867.530029</v>
+      </c>
+      <c r="D1023" t="n">
+        <v>1899.400024</v>
+      </c>
+      <c r="E1023" t="n">
+        <v>1927300</v>
+      </c>
+      <c r="F1023" t="n">
+        <v>1899.400024</v>
+      </c>
+    </row>
+    <row r="1024">
+      <c r="A1024" t="n">
+        <v>1888.839966</v>
+      </c>
+      <c r="B1024" t="n">
+        <v>1925</v>
+      </c>
+      <c r="C1024" t="n">
+        <v>1884.244995</v>
+      </c>
+      <c r="D1024" t="n">
+        <v>1917.23999</v>
+      </c>
+      <c r="E1024" t="n">
+        <v>1310700</v>
+      </c>
+      <c r="F1024" t="n">
+        <v>1917.23999</v>
       </c>
     </row>
   </sheetData>
@@ -20630,172 +20890,172 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1736.96442897849</v>
+        <v>1916.3529198117</v>
       </c>
       <c r="B2" t="n">
-        <v>1709.78021488091</v>
+        <v>1888.77040607152</v>
       </c>
       <c r="C2" t="n">
-        <v>1764.14864307607</v>
+        <v>1943.93543355187</v>
       </c>
       <c r="D2" t="n">
-        <v>1695.3897611994</v>
+        <v>1874.16910529554</v>
       </c>
       <c r="E2" t="n">
-        <v>1778.53909675758</v>
+        <v>1958.53673432786</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1737.90532973954</v>
+        <v>1917.45898784904</v>
       </c>
       <c r="B3" t="n">
-        <v>1701.9724978446</v>
+        <v>1880.72444789712</v>
       </c>
       <c r="C3" t="n">
-        <v>1773.83816163447</v>
+        <v>1954.19352780095</v>
       </c>
       <c r="D3" t="n">
-        <v>1682.9508056532</v>
+        <v>1861.27835709634</v>
       </c>
       <c r="E3" t="n">
-        <v>1792.85985382588</v>
+        <v>1973.63961860173</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1738.84623050059</v>
+        <v>1918.56505588638</v>
       </c>
       <c r="B4" t="n">
-        <v>1695.91191648631</v>
+        <v>1874.5416781567</v>
       </c>
       <c r="C4" t="n">
-        <v>1781.78054451486</v>
+        <v>1962.58843361607</v>
       </c>
       <c r="D4" t="n">
-        <v>1673.1838635453</v>
+        <v>1851.23710970942</v>
       </c>
       <c r="E4" t="n">
-        <v>1804.50859745587</v>
+        <v>1985.89300206334</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1739.78713126163</v>
+        <v>1919.67112392373</v>
       </c>
       <c r="B5" t="n">
-        <v>1690.8428544587</v>
+        <v>1869.40494097751</v>
       </c>
       <c r="C5" t="n">
-        <v>1788.73140806457</v>
+        <v>1969.93730686994</v>
       </c>
       <c r="D5" t="n">
-        <v>1664.93331939621</v>
+        <v>1842.79563107298</v>
       </c>
       <c r="E5" t="n">
-        <v>1814.64094312706</v>
+        <v>1996.54661677447</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1740.72803202268</v>
+        <v>1920.77719196107</v>
       </c>
       <c r="B6" t="n">
-        <v>1686.43503851846</v>
+        <v>1864.96213566589</v>
       </c>
       <c r="C6" t="n">
-        <v>1795.0210255269</v>
+        <v>1976.59224825625</v>
       </c>
       <c r="D6" t="n">
-        <v>1657.69406386869</v>
+        <v>1835.41542964514</v>
       </c>
       <c r="E6" t="n">
-        <v>1823.76200017668</v>
+        <v>2006.138954277</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1741.66893278373</v>
+        <v>1921.88325999841</v>
       </c>
       <c r="B7" t="n">
-        <v>1682.5088444172</v>
+        <v>1861.02315918938</v>
       </c>
       <c r="C7" t="n">
-        <v>1800.82902115026</v>
+        <v>1982.74336080745</v>
       </c>
       <c r="D7" t="n">
-        <v>1651.191385381</v>
+        <v>1828.80576792692</v>
       </c>
       <c r="E7" t="n">
-        <v>1832.14648018646</v>
+        <v>2014.9607520699</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1742.60983354478</v>
+        <v>1922.98932803576</v>
       </c>
       <c r="B8" t="n">
-        <v>1678.95370290977</v>
+        <v>1857.4715195274</v>
       </c>
       <c r="C8" t="n">
-        <v>1806.26596417979</v>
+        <v>1988.50713654411</v>
       </c>
       <c r="D8" t="n">
-        <v>1645.25618286527</v>
+        <v>1822.7884867471</v>
       </c>
       <c r="E8" t="n">
-        <v>1839.96348422429</v>
+        <v>2023.19016932442</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1743.55073430583</v>
+        <v>1924.0953960731</v>
       </c>
       <c r="B9" t="n">
-        <v>1675.69581643462</v>
+        <v>1854.22970640364</v>
       </c>
       <c r="C9" t="n">
-        <v>1811.40565217704</v>
+        <v>1993.96108574256</v>
       </c>
       <c r="D9" t="n">
-        <v>1639.77559269069</v>
+        <v>1817.24504436759</v>
       </c>
       <c r="E9" t="n">
-        <v>1847.32587592096</v>
+        <v>2030.94574777861</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1744.49163506688</v>
+        <v>1925.20146411044</v>
       </c>
       <c r="B10" t="n">
-        <v>1672.68302283133</v>
+        <v>1851.24305718979</v>
       </c>
       <c r="C10" t="n">
-        <v>1816.30024730242</v>
+        <v>1999.1598710311</v>
       </c>
       <c r="D10" t="n">
-        <v>1634.66983971706</v>
+        <v>1812.09184151259</v>
       </c>
       <c r="E10" t="n">
-        <v>1854.31343041669</v>
+        <v>2038.3110867083</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1745.43253582792</v>
+        <v>1926.30753214779</v>
       </c>
       <c r="B11" t="n">
-        <v>1669.87683648577</v>
+        <v>1848.47131104545</v>
       </c>
       <c r="C11" t="n">
-        <v>1820.98823517007</v>
+        <v>2004.14375325013</v>
       </c>
       <c r="D11" t="n">
-        <v>1629.88006527679</v>
+        <v>1807.2673045402</v>
       </c>
       <c r="E11" t="n">
-        <v>1860.98500637906</v>
+        <v>2045.34775975537</v>
       </c>
     </row>
   </sheetData>

--- a/google.xlsx
+++ b/google.xlsx
@@ -20857,6 +20857,26 @@
         <v>1917.23999</v>
       </c>
     </row>
+    <row r="1025">
+      <c r="A1025" t="n">
+        <v>1882.530029</v>
+      </c>
+      <c r="B1025" t="n">
+        <v>1890</v>
+      </c>
+      <c r="C1025" t="n">
+        <v>1809</v>
+      </c>
+      <c r="D1025" t="n">
+        <v>1830.790039</v>
+      </c>
+      <c r="E1025" t="n">
+        <v>2699821</v>
+      </c>
+      <c r="F1025" t="n">
+        <v>1830.790039</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -20890,172 +20910,172 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1916.3529198117</v>
+        <v>1842.33971601113</v>
       </c>
       <c r="B2" t="n">
-        <v>1888.77040607152</v>
+        <v>1814.55829025447</v>
       </c>
       <c r="C2" t="n">
-        <v>1943.93543355187</v>
+        <v>1870.12114176779</v>
       </c>
       <c r="D2" t="n">
-        <v>1874.16910529554</v>
+        <v>1799.85169181751</v>
       </c>
       <c r="E2" t="n">
-        <v>1958.53673432786</v>
+        <v>1884.82774020474</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1917.45898784904</v>
+        <v>1843.36533837462</v>
       </c>
       <c r="B3" t="n">
-        <v>1880.72444789712</v>
+        <v>1806.41725748633</v>
       </c>
       <c r="C3" t="n">
-        <v>1954.19352780095</v>
+        <v>1880.31341926291</v>
       </c>
       <c r="D3" t="n">
-        <v>1861.27835709634</v>
+        <v>1786.85812494216</v>
       </c>
       <c r="E3" t="n">
-        <v>1973.63961860173</v>
+        <v>1899.87255180708</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1918.56505588638</v>
+        <v>1844.39096073811</v>
       </c>
       <c r="B4" t="n">
-        <v>1874.5416781567</v>
+        <v>1800.1358622117</v>
       </c>
       <c r="C4" t="n">
-        <v>1962.58843361607</v>
+        <v>1888.64605926453</v>
       </c>
       <c r="D4" t="n">
-        <v>1851.23710970942</v>
+        <v>1776.7086281843</v>
       </c>
       <c r="E4" t="n">
-        <v>1985.89300206334</v>
+        <v>1912.07329329193</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1919.67112392373</v>
+        <v>1845.41658310161</v>
       </c>
       <c r="B5" t="n">
-        <v>1869.40494097751</v>
+        <v>1794.9005776198</v>
       </c>
       <c r="C5" t="n">
-        <v>1969.93730686994</v>
+        <v>1895.93258858342</v>
       </c>
       <c r="D5" t="n">
-        <v>1842.79563107298</v>
+        <v>1768.15901965343</v>
       </c>
       <c r="E5" t="n">
-        <v>1996.54661677447</v>
+        <v>1922.67414654979</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1920.77719196107</v>
+        <v>1846.4422054651</v>
       </c>
       <c r="B6" t="n">
-        <v>1864.96213566589</v>
+        <v>1790.35994557756</v>
       </c>
       <c r="C6" t="n">
-        <v>1976.59224825625</v>
+        <v>1902.52446535264</v>
       </c>
       <c r="D6" t="n">
-        <v>1835.41542964514</v>
+        <v>1760.67179051931</v>
       </c>
       <c r="E6" t="n">
-        <v>2006.138954277</v>
+        <v>1932.21262041089</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1921.88325999841</v>
+        <v>1847.4678278286</v>
       </c>
       <c r="B7" t="n">
-        <v>1861.02315918938</v>
+        <v>1786.32395701272</v>
       </c>
       <c r="C7" t="n">
-        <v>1982.74336080745</v>
+        <v>1908.61169864447</v>
       </c>
       <c r="D7" t="n">
-        <v>1828.80576792692</v>
+        <v>1753.95634698267</v>
       </c>
       <c r="E7" t="n">
-        <v>2014.9607520699</v>
+        <v>1940.97930867452</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1922.98932803576</v>
+        <v>1848.49345019209</v>
       </c>
       <c r="B8" t="n">
-        <v>1857.4715195274</v>
+        <v>1782.67608164394</v>
       </c>
       <c r="C8" t="n">
-        <v>1988.50713654411</v>
+        <v>1914.31081874024</v>
       </c>
       <c r="D8" t="n">
-        <v>1822.7884867471</v>
+        <v>1747.83447135751</v>
       </c>
       <c r="E8" t="n">
-        <v>2023.19016932442</v>
+        <v>1949.15242902667</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1924.0953960731</v>
+        <v>1849.51907255558</v>
       </c>
       <c r="B9" t="n">
-        <v>1854.22970640364</v>
+        <v>1779.33874007661</v>
       </c>
       <c r="C9" t="n">
-        <v>1993.96108574256</v>
+        <v>1919.69940503455</v>
       </c>
       <c r="D9" t="n">
-        <v>1817.24504436759</v>
+        <v>1742.18751619845</v>
       </c>
       <c r="E9" t="n">
-        <v>2030.94574777861</v>
+        <v>1956.85062891272</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1925.20146411044</v>
+        <v>1850.54469491908</v>
       </c>
       <c r="B10" t="n">
-        <v>1851.24305718979</v>
+        <v>1776.25719845356</v>
       </c>
       <c r="C10" t="n">
-        <v>1999.1598710311</v>
+        <v>1924.83219138459</v>
       </c>
       <c r="D10" t="n">
-        <v>1812.09184151259</v>
+        <v>1736.93177329451</v>
       </c>
       <c r="E10" t="n">
-        <v>2038.3110867083</v>
+        <v>1964.15761654364</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1926.30753214779</v>
+        <v>1851.57031728257</v>
       </c>
       <c r="B11" t="n">
-        <v>1848.47131104545</v>
+        <v>1773.39113082371</v>
       </c>
       <c r="C11" t="n">
-        <v>2004.14375325013</v>
+        <v>1929.74950374143</v>
       </c>
       <c r="D11" t="n">
-        <v>1807.2673045402</v>
+        <v>1732.00556942563</v>
       </c>
       <c r="E11" t="n">
-        <v>2045.34775975537</v>
+        <v>1971.13506513951</v>
       </c>
     </row>
   </sheetData>

--- a/google.xlsx
+++ b/google.xlsx
@@ -18331,7 +18331,7 @@
         <v>1530.199951</v>
       </c>
       <c r="E898" t="n">
-        <v>1245100</v>
+        <v>1246000</v>
       </c>
       <c r="F898" t="n">
         <v>1530.199951</v>
@@ -18351,7 +18351,7 @@
         <v>1500.339966</v>
       </c>
       <c r="E899" t="n">
-        <v>1702200</v>
+        <v>1701400</v>
       </c>
       <c r="F899" t="n">
         <v>1500.339966</v>
@@ -20851,7 +20851,7 @@
         <v>1917.23999</v>
       </c>
       <c r="E1024" t="n">
-        <v>1310700</v>
+        <v>1313100</v>
       </c>
       <c r="F1024" t="n">
         <v>1917.23999</v>
@@ -20871,7 +20871,7 @@
         <v>1830.790039</v>
       </c>
       <c r="E1025" t="n">
-        <v>2699821</v>
+        <v>2744400</v>
       </c>
       <c r="F1025" t="n">
         <v>1830.790039</v>

--- a/google.xlsx
+++ b/google.xlsx
@@ -11631,7 +11631,7 @@
         <v>1168.48999</v>
       </c>
       <c r="E563" t="n">
-        <v>1012400</v>
+        <v>961700</v>
       </c>
       <c r="F563" t="n">
         <v>1168.48999</v>
@@ -11711,7 +11711,7 @@
         <v>1205.920044</v>
       </c>
       <c r="E567" t="n">
-        <v>1017800</v>
+        <v>1014300</v>
       </c>
       <c r="F567" t="n">
         <v>1205.920044</v>
@@ -13171,7 +13171,7 @@
         <v>1146.329956</v>
       </c>
       <c r="E640" t="n">
-        <v>1291300</v>
+        <v>1290700</v>
       </c>
       <c r="F640" t="n">
         <v>1146.329956</v>
@@ -14731,7 +14731,7 @@
         <v>1291.800049</v>
       </c>
       <c r="E718" t="n">
-        <v>1152700</v>
+        <v>1153000</v>
       </c>
       <c r="F718" t="n">
         <v>1291.800049</v>
@@ -15911,7 +15911,7 @@
         <v>1485.939941</v>
       </c>
       <c r="E777" t="n">
-        <v>3055200</v>
+        <v>3036800</v>
       </c>
       <c r="F777" t="n">
         <v>1485.939941</v>
@@ -16271,7 +16271,7 @@
         <v>1339.329956</v>
       </c>
       <c r="E795" t="n">
-        <v>3790600</v>
+        <v>3789100</v>
       </c>
       <c r="F795" t="n">
         <v>1339.329956</v>
@@ -17011,7 +17011,7 @@
         <v>1263.209961</v>
       </c>
       <c r="E832" t="n">
-        <v>2093100</v>
+        <v>2092400</v>
       </c>
       <c r="F832" t="n">
         <v>1263.209961</v>
@@ -17051,7 +17051,7 @@
         <v>1279.310059</v>
       </c>
       <c r="E834" t="n">
-        <v>1640400</v>
+        <v>1639600</v>
       </c>
       <c r="F834" t="n">
         <v>1279.310059</v>
@@ -17251,7 +17251,7 @@
         <v>1388.369995</v>
       </c>
       <c r="E844" t="n">
-        <v>1388100</v>
+        <v>1386900</v>
       </c>
       <c r="F844" t="n">
         <v>1388.369995</v>
@@ -17311,7 +17311,7 @@
         <v>1349.329956</v>
       </c>
       <c r="E847" t="n">
-        <v>1810600</v>
+        <v>1812600</v>
       </c>
       <c r="F847" t="n">
         <v>1349.329956</v>
@@ -17371,7 +17371,7 @@
         <v>1383.939941</v>
       </c>
       <c r="E850" t="n">
-        <v>1824000</v>
+        <v>1822400</v>
       </c>
       <c r="F850" t="n">
         <v>1383.939941</v>
@@ -17531,7 +17531,7 @@
         <v>1428.920044</v>
       </c>
       <c r="E858" t="n">
-        <v>1838100</v>
+        <v>1820900</v>
       </c>
       <c r="F858" t="n">
         <v>1428.920044</v>
@@ -17731,7 +17731,7 @@
         <v>1413.180054</v>
       </c>
       <c r="E868" t="n">
-        <v>1944200</v>
+        <v>1946400</v>
       </c>
       <c r="F868" t="n">
         <v>1413.180054</v>
@@ -17791,7 +17791,7 @@
         <v>1451.119995</v>
       </c>
       <c r="E871" t="n">
-        <v>1548300</v>
+        <v>1549600</v>
       </c>
       <c r="F871" t="n">
         <v>1451.119995</v>
@@ -18251,7 +18251,7 @@
         <v>1558.420044</v>
       </c>
       <c r="E894" t="n">
-        <v>1218600</v>
+        <v>1216200</v>
       </c>
       <c r="F894" t="n">
         <v>1558.420044</v>
@@ -18351,7 +18351,7 @@
         <v>1500.339966</v>
       </c>
       <c r="E899" t="n">
-        <v>1701400</v>
+        <v>1702200</v>
       </c>
       <c r="F899" t="n">
         <v>1500.339966</v>
@@ -18511,7 +18511,7 @@
         <v>1494.48999</v>
       </c>
       <c r="E907" t="n">
-        <v>1576600</v>
+        <v>1577800</v>
       </c>
       <c r="F907" t="n">
         <v>1494.48999</v>
@@ -18571,7 +18571,7 @@
         <v>1506.619995</v>
       </c>
       <c r="E910" t="n">
-        <v>1437700</v>
+        <v>1437000</v>
       </c>
       <c r="F910" t="n">
         <v>1506.619995</v>
@@ -18811,7 +18811,7 @@
         <v>1644.410034</v>
       </c>
       <c r="E922" t="n">
-        <v>1499800</v>
+        <v>1499000</v>
       </c>
       <c r="F922" t="n">
         <v>1644.410034</v>
@@ -18851,7 +18851,7 @@
         <v>1660.709961</v>
       </c>
       <c r="E924" t="n">
-        <v>1826700</v>
+        <v>1825300</v>
       </c>
       <c r="F924" t="n">
         <v>1660.709961</v>
@@ -19251,7 +19251,7 @@
         <v>1469.599976</v>
       </c>
       <c r="E944" t="n">
-        <v>1700600</v>
+        <v>1701600</v>
       </c>
       <c r="F944" t="n">
         <v>1469.599976</v>
@@ -19451,7 +19451,7 @@
         <v>1568.079956</v>
       </c>
       <c r="E954" t="n">
-        <v>1931000</v>
+        <v>1929300</v>
       </c>
       <c r="F954" t="n">
         <v>1568.079956</v>
@@ -20731,7 +20731,7 @@
         <v>1736.189941</v>
       </c>
       <c r="E1018" t="n">
-        <v>1342200</v>
+        <v>1328300</v>
       </c>
       <c r="F1018" t="n">
         <v>1736.189941</v>
@@ -20871,10 +20871,250 @@
         <v>1830.790039</v>
       </c>
       <c r="E1025" t="n">
-        <v>2744400</v>
+        <v>2748300</v>
       </c>
       <c r="F1025" t="n">
         <v>1830.790039</v>
+      </c>
+    </row>
+    <row r="1026">
+      <c r="A1026" t="n">
+        <v>1843.939941</v>
+      </c>
+      <c r="B1026" t="n">
+        <v>1898.829956</v>
+      </c>
+      <c r="C1026" t="n">
+        <v>1842.640015</v>
+      </c>
+      <c r="D1026" t="n">
+        <v>1863.109985</v>
+      </c>
+      <c r="E1026" t="n">
+        <v>1773100</v>
+      </c>
+      <c r="F1026" t="n">
+        <v>1863.109985</v>
+      </c>
+    </row>
+    <row r="1027">
+      <c r="A1027" t="n">
+        <v>1846.170044</v>
+      </c>
+      <c r="B1027" t="n">
+        <v>1857.280029</v>
+      </c>
+      <c r="C1027" t="n">
+        <v>1810.199951</v>
+      </c>
+      <c r="D1027" t="n">
+        <v>1835.73999</v>
+      </c>
+      <c r="E1027" t="n">
+        <v>1612600</v>
+      </c>
+      <c r="F1027" t="n">
+        <v>1835.73999</v>
+      </c>
+    </row>
+    <row r="1028">
+      <c r="A1028" t="n">
+        <v>1853.569946</v>
+      </c>
+      <c r="B1028" t="n">
+        <v>1922.391968</v>
+      </c>
+      <c r="C1028" t="n">
+        <v>1850.930054</v>
+      </c>
+      <c r="D1028" t="n">
+        <v>1901.349976</v>
+      </c>
+      <c r="E1028" t="n">
+        <v>1602200</v>
+      </c>
+      <c r="F1028" t="n">
+        <v>1901.349976</v>
+      </c>
+    </row>
+    <row r="1029">
+      <c r="A1029" t="n">
+        <v>1922.560059</v>
+      </c>
+      <c r="B1029" t="n">
+        <v>1955.76001</v>
+      </c>
+      <c r="C1029" t="n">
+        <v>1914.48999</v>
+      </c>
+      <c r="D1029" t="n">
+        <v>1927.51001</v>
+      </c>
+      <c r="E1029" t="n">
+        <v>2273700</v>
+      </c>
+      <c r="F1029" t="n">
+        <v>1927.51001</v>
+      </c>
+    </row>
+    <row r="1030">
+      <c r="A1030" t="n">
+        <v>2073</v>
+      </c>
+      <c r="B1030" t="n">
+        <v>2116.5</v>
+      </c>
+      <c r="C1030" t="n">
+        <v>2018.380005</v>
+      </c>
+      <c r="D1030" t="n">
+        <v>2070.070068</v>
+      </c>
+      <c r="E1030" t="n">
+        <v>4118200</v>
+      </c>
+      <c r="F1030" t="n">
+        <v>2070.070068</v>
+      </c>
+    </row>
+    <row r="1031">
+      <c r="A1031" t="n">
+        <v>2068.889893</v>
+      </c>
+      <c r="B1031" t="n">
+        <v>2078.550049</v>
+      </c>
+      <c r="C1031" t="n">
+        <v>2042.589966</v>
+      </c>
+      <c r="D1031" t="n">
+        <v>2062.370117</v>
+      </c>
+      <c r="E1031" t="n">
+        <v>1852300</v>
+      </c>
+      <c r="F1031" t="n">
+        <v>2062.370117</v>
+      </c>
+    </row>
+    <row r="1032">
+      <c r="A1032" t="n">
+        <v>2070</v>
+      </c>
+      <c r="B1032" t="n">
+        <v>2102.51001</v>
+      </c>
+      <c r="C1032" t="n">
+        <v>2059.330078</v>
+      </c>
+      <c r="D1032" t="n">
+        <v>2098</v>
+      </c>
+      <c r="E1032" t="n">
+        <v>1533900</v>
+      </c>
+      <c r="F1032" t="n">
+        <v>2098</v>
+      </c>
+    </row>
+    <row r="1033">
+      <c r="A1033" t="n">
+        <v>2105.909912</v>
+      </c>
+      <c r="B1033" t="n">
+        <v>2123.547119</v>
+      </c>
+      <c r="C1033" t="n">
+        <v>2072</v>
+      </c>
+      <c r="D1033" t="n">
+        <v>2092.909912</v>
+      </c>
+      <c r="E1033" t="n">
+        <v>1241900</v>
+      </c>
+      <c r="F1033" t="n">
+        <v>2092.909912</v>
+      </c>
+    </row>
+    <row r="1034">
+      <c r="A1034" t="n">
+        <v>2078.540039</v>
+      </c>
+      <c r="B1034" t="n">
+        <v>2105.129883</v>
+      </c>
+      <c r="C1034" t="n">
+        <v>2078.540039</v>
+      </c>
+      <c r="D1034" t="n">
+        <v>2083.51001</v>
+      </c>
+      <c r="E1034" t="n">
+        <v>889900</v>
+      </c>
+      <c r="F1034" t="n">
+        <v>2083.51001</v>
+      </c>
+    </row>
+    <row r="1035">
+      <c r="A1035" t="n">
+        <v>2094.209961</v>
+      </c>
+      <c r="B1035" t="n">
+        <v>2108.370117</v>
+      </c>
+      <c r="C1035" t="n">
+        <v>2063.090088</v>
+      </c>
+      <c r="D1035" t="n">
+        <v>2095.379883</v>
+      </c>
+      <c r="E1035" t="n">
+        <v>1135500</v>
+      </c>
+      <c r="F1035" t="n">
+        <v>2095.379883</v>
+      </c>
+    </row>
+    <row r="1036">
+      <c r="A1036" t="n">
+        <v>2099.51001</v>
+      </c>
+      <c r="B1036" t="n">
+        <v>2102.030029</v>
+      </c>
+      <c r="C1036" t="n">
+        <v>2077.320068</v>
+      </c>
+      <c r="D1036" t="n">
+        <v>2095.889893</v>
+      </c>
+      <c r="E1036" t="n">
+        <v>945200</v>
+      </c>
+      <c r="F1036" t="n">
+        <v>2095.889893</v>
+      </c>
+    </row>
+    <row r="1037">
+      <c r="A1037" t="n">
+        <v>2090.25</v>
+      </c>
+      <c r="B1037" t="n">
+        <v>2108.820068</v>
+      </c>
+      <c r="C1037" t="n">
+        <v>2083.129883</v>
+      </c>
+      <c r="D1037" t="n">
+        <v>2104.110107</v>
+      </c>
+      <c r="E1037" t="n">
+        <v>855700</v>
+      </c>
+      <c r="F1037" t="n">
+        <v>2104.110107</v>
       </c>
     </row>
   </sheetData>
@@ -20910,172 +21150,172 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1842.33971601113</v>
+        <v>2104.53073845805</v>
       </c>
       <c r="B2" t="n">
-        <v>1814.55829025447</v>
+        <v>2076.11884879758</v>
       </c>
       <c r="C2" t="n">
-        <v>1870.12114176779</v>
+        <v>2132.94262811852</v>
       </c>
       <c r="D2" t="n">
-        <v>1799.85169181751</v>
+        <v>2061.07850293011</v>
       </c>
       <c r="E2" t="n">
-        <v>1884.82774020474</v>
+        <v>2147.98297398599</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1843.36533837462</v>
+        <v>2105.90871388813</v>
       </c>
       <c r="B3" t="n">
-        <v>1806.41725748633</v>
+        <v>2068.11363936176</v>
       </c>
       <c r="C3" t="n">
-        <v>1880.31341926291</v>
+        <v>2143.7037884145</v>
       </c>
       <c r="D3" t="n">
-        <v>1786.85812494216</v>
+        <v>2048.10613546967</v>
       </c>
       <c r="E3" t="n">
-        <v>1899.87255180708</v>
+        <v>2163.71129230659</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1844.39096073811</v>
+        <v>2107.16918207012</v>
       </c>
       <c r="B4" t="n">
-        <v>1800.1358622117</v>
+        <v>2061.65851403117</v>
       </c>
       <c r="C4" t="n">
-        <v>1888.64605926453</v>
+        <v>2152.67985010907</v>
       </c>
       <c r="D4" t="n">
-        <v>1776.7086281843</v>
+        <v>2037.56662165282</v>
       </c>
       <c r="E4" t="n">
-        <v>1912.07329329193</v>
+        <v>2176.77174248741</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1845.41658310161</v>
+        <v>2108.44407344143</v>
       </c>
       <c r="B5" t="n">
-        <v>1794.9005776198</v>
+        <v>2056.37380492137</v>
       </c>
       <c r="C5" t="n">
-        <v>1895.93258858342</v>
+        <v>2160.51434196149</v>
       </c>
       <c r="D5" t="n">
-        <v>1768.15901965343</v>
+        <v>2028.80946980277</v>
       </c>
       <c r="E5" t="n">
-        <v>1922.67414654979</v>
+        <v>2188.07867708009</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1846.4422054651</v>
+        <v>2109.71719446756</v>
       </c>
       <c r="B6" t="n">
-        <v>1790.35994557756</v>
+        <v>2051.82305677311</v>
       </c>
       <c r="C6" t="n">
-        <v>1902.52446535264</v>
+        <v>2167.611332162</v>
       </c>
       <c r="D6" t="n">
-        <v>1760.67179051931</v>
+        <v>2021.17575154177</v>
       </c>
       <c r="E6" t="n">
-        <v>1932.21262041089</v>
+        <v>2198.25863739334</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1847.4678278286</v>
+        <v>2110.99053279112</v>
       </c>
       <c r="B7" t="n">
-        <v>1786.32395701272</v>
+        <v>2047.80739079518</v>
       </c>
       <c r="C7" t="n">
-        <v>1908.61169864447</v>
+        <v>2174.17367478707</v>
       </c>
       <c r="D7" t="n">
-        <v>1753.95634698267</v>
+        <v>2014.36025581159</v>
       </c>
       <c r="E7" t="n">
-        <v>1940.97930867452</v>
+        <v>2207.62080977066</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1848.49345019209</v>
+        <v>2112.26384444295</v>
       </c>
       <c r="B8" t="n">
-        <v>1782.67608164394</v>
+        <v>2044.20142747953</v>
       </c>
       <c r="C8" t="n">
-        <v>1914.31081874024</v>
+        <v>2180.32626140638</v>
       </c>
       <c r="D8" t="n">
-        <v>1747.83447135751</v>
+        <v>2008.17136035131</v>
       </c>
       <c r="E8" t="n">
-        <v>1949.15242902667</v>
+        <v>2216.35632853459</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1849.51907255558</v>
+        <v>2113.53715936855</v>
       </c>
       <c r="B9" t="n">
-        <v>1779.33874007661</v>
+        <v>2040.92259354489</v>
       </c>
       <c r="C9" t="n">
-        <v>1919.69940503455</v>
+        <v>2186.15172519221</v>
       </c>
       <c r="D9" t="n">
-        <v>1742.18751619845</v>
+        <v>2002.48276437282</v>
       </c>
       <c r="E9" t="n">
-        <v>1956.85062891272</v>
+        <v>2224.59155436428</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1850.54469491908</v>
+        <v>2114.81047389232</v>
       </c>
       <c r="B10" t="n">
-        <v>1776.25719845356</v>
+        <v>2037.91276384386</v>
       </c>
       <c r="C10" t="n">
-        <v>1924.83219138459</v>
+        <v>2191.70818394079</v>
       </c>
       <c r="D10" t="n">
-        <v>1736.93177329451</v>
+        <v>1997.20557508004</v>
       </c>
       <c r="E10" t="n">
-        <v>1964.15761654364</v>
+        <v>2232.4153727046</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1851.57031728257</v>
+        <v>2116.08378846541</v>
       </c>
       <c r="B11" t="n">
-        <v>1773.39113082371</v>
+        <v>2035.12923057925</v>
       </c>
       <c r="C11" t="n">
-        <v>1929.74950374143</v>
+        <v>2197.03834635157</v>
       </c>
       <c r="D11" t="n">
-        <v>1732.00556942563</v>
+        <v>1992.27447629481</v>
       </c>
       <c r="E11" t="n">
-        <v>1971.13506513951</v>
+        <v>2239.89310063601</v>
       </c>
     </row>
   </sheetData>
